--- a/biology/Médecine/Ixazomib/Ixazomib.xlsx
+++ b/biology/Médecine/Ixazomib/Ixazomib.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ixazomib est un inhibiteur du protéasome utilisé comme médicaments dans certains cancers.
 </t>
@@ -511,9 +523,11 @@
           <t>Pharmacodynamique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est utilisé par voie orale. Il a une demi-vie d'action plus courte que le bortézomib et a une meilleure activité anti-protéasome que ce dernier[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est utilisé par voie orale. Il a une demi-vie d'action plus courte que le bortézomib et a une meilleure activité anti-protéasome que ce dernier.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le myélome multiple et en association avec le lénalidomide et un traitement par corticoïdes, il permet des rémissions plus longues[2]. En particulier, après une transplantation de moelle, il permet une prolongation de la rémission de quelques mois[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le myélome multiple et en association avec le lénalidomide et un traitement par corticoïdes, il permet des rémissions plus longues. En particulier, après une transplantation de moelle, il permet une prolongation de la rémission de quelques mois.
 </t>
         </is>
       </c>
